--- a/UploadList/UploadSupervisorList.xlsx
+++ b/UploadList/UploadSupervisorList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/socally/AllFYP/FYPTesting/UploadList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/socally/AllFYP/FYPDeploy/UploadList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F4EE83-835E-B54E-9BDE-13EB521D1AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE8E2B0-48A0-8E4C-8852-36F355F5B124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="7160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>password</t>
   </si>
@@ -42,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prof Catie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dr dabbie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tid00005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,22 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dr Eva</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prof Fanny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dr George</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prof Harry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tid00007</t>
   </si>
   <si>
@@ -115,27 +91,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prof Chan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tid00001</t>
   </si>
   <si>
     <t>tpw00001</t>
   </si>
   <si>
-    <t>Prof Lam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dr Amantha</t>
-  </si>
-  <si>
-    <t>Dr Banana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tid00002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +118,93 @@
   </si>
   <si>
     <t>tpw00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr LIU Yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. ZHANG, Eric Lu</t>
+  </si>
+  <si>
+    <t>Dr. WAN, Renjie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr Yu, Wilson Shih Bun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prof. CHEUNG, Yiu Ming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. ZHOU, Kaiyang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prof. Xu, Jianliang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. HAN, Bo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. DAI, Henry Hong Ning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prof. YUEN, Pong Chi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpw00011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpw00012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpw00013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpw00014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid00011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid00012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid00013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid00014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prof. LEUNG,Yiu Wing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. FENG, Jian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. WANG, Juncheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. YANG, Renchi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="139" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -532,7 +580,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -541,18 +589,18 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -563,10 +611,10 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -577,10 +625,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -591,10 +639,10 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -602,13 +650,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -616,13 +664,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -630,27 +678,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -658,13 +706,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -672,16 +720,72 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
